--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject30.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject30.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>0.5501009033764761</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.69081635267734098</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -200,7 +200,7 @@
         <v>0</v>
       </c>
       <c r="Y1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z1" s="0">
         <v>0</v>
@@ -314,7 +314,7 @@
         <v>0</v>
       </c>
       <c r="BK1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.62646719785082838</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.87621524227613157</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.72370018584838192</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.50267628438290768</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="AW2" s="0">
-        <v>0</v>
+        <v>0.50700538320459154</v>
       </c>
       <c r="AX2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.684364094695884</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.6684421749891778</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.84217198647965674</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.99188293513677406</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>0</v>
+        <v>0.55305889073703551</v>
       </c>
       <c r="Q3" s="0">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="AG3" s="0">
-        <v>0</v>
+        <v>0.6753458585654637</v>
       </c>
       <c r="AH3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>0</v>
+        <v>0.57977221851993055</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.91854721851115095</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.69860353419368648</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.88260552884630761</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.82299740129551302</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -872,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.7920125860817997</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.50281742760906223</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.50157597672468235</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1081,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="AR5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="0">
         <v>0</v>
       </c>
       <c r="AT5" s="0">
-        <v>0</v>
+        <v>0.97624751982568048</v>
       </c>
       <c r="AU5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.52426028363736754</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.89066897884417662</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.51943334068753944</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="0">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="0">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="BO6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.99823415198058285</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.75519026861909655</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.76751339466123825</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="0">
-        <v>0</v>
+        <v>0.65527927952799447</v>
       </c>
       <c r="M7" s="0">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="0">
-        <v>0</v>
+        <v>0.50449920127227643</v>
       </c>
       <c r="X7" s="0">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="0">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>0</v>
+        <v>0.68025465651599171</v>
       </c>
       <c r="AQ7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.67948575165955094</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.76191949308465878</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.58609194750306393</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.5813220914884043</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.55676460779276027</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="0">
-        <v>0</v>
+        <v>0.85156658165090304</v>
       </c>
       <c r="Q9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>0</v>
+        <v>0.61401371814864669</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="BK9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.60523639465998369</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.95196568966429918</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.65846519606561327</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.62427682297607023</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.70565624809866589</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.53260612532043594</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="0">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="0">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>0</v>
+        <v>0.63088336710670534</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.64039801290571452</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.71621165273142751</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.69445351857106008</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.76508565488746161</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.98930680414585515</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.50209140303584676</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.75900808059269342</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="0">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="0">
-        <v>0</v>
+        <v>0.52016778884101611</v>
       </c>
       <c r="AE13" s="0">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="AO13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="0">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="0">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.57196236061590044</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.91841520740187099</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="0">
-        <v>0</v>
+        <v>0.8564133346268602</v>
       </c>
       <c r="BB14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.6583490683369756</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.76790569873602577</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.69855606579489826</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.93250241593383987</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>0.91797083768054888</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="0">
-        <v>0</v>
+        <v>0.81928857259467103</v>
       </c>
       <c r="J16" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.74664986131569866</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="0">
-        <v>0</v>
+        <v>0.56726781957084671</v>
       </c>
       <c r="AQ16" s="0">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.75169828918333159</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.68675981465129921</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="0">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="0">
         <v>0</v>
@@ -3613,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="BL17" s="0">
-        <v>0</v>
+        <v>0.99529305351599118</v>
       </c>
       <c r="BM17" s="0">
-        <v>0</v>
+        <v>0.77607291415127855</v>
       </c>
       <c r="BN17" s="0">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.91094512305024367</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AG18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="0">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AT18" s="0">
-        <v>0</v>
+        <v>0.78763364573652594</v>
       </c>
       <c r="AU18" s="0">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AY18" s="0">
-        <v>0</v>
+        <v>0.7818640068799223</v>
       </c>
       <c r="AZ18" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>0</v>
+        <v>0.83768495006770771</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3887,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.60219677149154771</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.78462576227877201</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="AW19" s="0">
-        <v>0</v>
+        <v>0.55791821229858718</v>
       </c>
       <c r="AX19" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.89976660192142277</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.86040872515730848</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="AH20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="0">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="BO20" s="0">
-        <v>0</v>
+        <v>0.58914629822089615</v>
       </c>
       <c r="BP20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.54876402875901786</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.77848468691289208</v>
       </c>
       <c r="W21" s="0">
-        <v>0</v>
+        <v>0.77731400787962457</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="BK21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL21" s="0">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="0">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.6072279040782973</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.8403627235731771</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.76167469782335662</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="0">
-        <v>1</v>
+        <v>0.93603579112901714</v>
       </c>
       <c r="AG22" s="0">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="0">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="0">
-        <v>0</v>
+        <v>0.88875698598024355</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0</v>
+        <v>0.52620119301436241</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0</v>
+        <v>0.8700833162753896</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="0">
-        <v>0</v>
+        <v>0.56943724405029394</v>
       </c>
       <c r="AF23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.9154750315600898</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.92673949229158625</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="AH24" s="0">
-        <v>0</v>
+        <v>0.83281880618645232</v>
       </c>
       <c r="AI24" s="0">
         <v>0</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0</v>
+        <v>0.88675126490195932</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.67745824175176472</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.72038656748824437</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.89591255248399615</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.79189637583180128</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.57044734688658894</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.68536954427794761</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="0">
-        <v>0</v>
+        <v>0.92676477038058647</v>
       </c>
       <c r="AK26" s="0">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.97700152208141244</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.94505646047355518</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.60007943831044086</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.82024908864601809</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="0">
-        <v>0</v>
+        <v>0.89293915307066163</v>
       </c>
       <c r="AO27" s="0">
         <v>0</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.8648102811807814</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.77349969488731674</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.87493081860372068</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.50880240780378727</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.95391436547275443</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.64883089425701646</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.93947804491013454</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="BB29" s="0">
-        <v>0</v>
+        <v>0.91467713430775432</v>
       </c>
       <c r="BC29" s="0">
         <v>0</v>
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="0">
-        <v>0</v>
+        <v>0.78030777396791007</v>
       </c>
       <c r="N30" s="0">
         <v>0</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.67402887820914636</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.76871109149928118</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="0">
-        <v>0</v>
+        <v>0.54291429112449929</v>
       </c>
       <c r="X31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.67115434331432411</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.59423245167019856</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="0">
-        <v>0</v>
+        <v>0.72766061045847497</v>
       </c>
       <c r="AM31" s="0">
         <v>0</v>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="0">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="0">
-        <v>1</v>
+        <v>0.99494818900374404</v>
       </c>
       <c r="W32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.92228449794005818</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.66487098704561765</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.79078091550332519</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="0">
-        <v>0</v>
+        <v>0.6033130290519011</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.69178177792789675</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.78865999308167511</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.84580000915902398</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="0">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="0">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="0">
-        <v>0</v>
+        <v>0.69827283393874384</v>
       </c>
       <c r="Y34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.61475317685098207</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.91563600586571836</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.54158967626702204</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.6359440698686627</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.54931112725028308</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.94248618880348167</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="BB35" s="0">
-        <v>0</v>
+        <v>0.62764904609105998</v>
       </c>
       <c r="BC35" s="0">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="0">
-        <v>0</v>
+        <v>0.83237487559710033</v>
       </c>
       <c r="AA36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.94597970713851653</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.79932680874835893</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="BJ36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK36" s="0">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.9692529809201782</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.58795346413696481</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.91357773193732494</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="0">
-        <v>0</v>
+        <v>0.60403356096150795</v>
       </c>
       <c r="AF38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.60760600905065254</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.86849976901782378</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.91777001244965351</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.5356343579483801</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.98076145324385944</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.80759772547781128</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>0</v>
+        <v>0.6484931948963315</v>
       </c>
       <c r="BB39" s="0">
         <v>0</v>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="BF39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG39" s="0">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="0">
-        <v>0</v>
+        <v>0.55148926874800441</v>
       </c>
       <c r="AB40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.99527770560479223</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.96365480755659239</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.53959302193928549</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="BP40" s="0">
-        <v>0</v>
+        <v>0.994827999712671</v>
       </c>
     </row>
     <row r="41">
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.64829289588640115</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.76518962079030894</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.99169527085747444</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.50786810606625443</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="0">
-        <v>0</v>
+        <v>0.90244496549211428</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8619,10 +8619,10 @@
         <v>0</v>
       </c>
       <c r="P42" s="0">
-        <v>0</v>
+        <v>0.78942114948224196</v>
       </c>
       <c r="Q42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.99989019617003683</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.55570392837278293</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.76937168708756043</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.72606658442228633</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.90418818135281454</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.99050802042801867</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.97569954179011575</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>0</v>
+        <v>0.68776713568957704</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="0">
-        <v>0</v>
+        <v>0.76862998326669141</v>
       </c>
       <c r="BL43" s="0">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="BP43" s="0">
-        <v>0</v>
+        <v>0.72833423970231914</v>
       </c>
     </row>
     <row r="44">
@@ -8995,10 +8995,10 @@
         <v>0</v>
       </c>
       <c r="D44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.68256665641674186</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.94562542083940504</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0</v>
+        <v>0.60724512748396442</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="BN44" s="0">
-        <v>0</v>
+        <v>0.80163830353965704</v>
       </c>
       <c r="BO44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.90549606450558495</v>
       </c>
       <c r="AR45" s="0">
-        <v>0</v>
+        <v>0.59089623829177518</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.66400616190011719</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.88603442000379595</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="BD45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE45" s="0">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="0">
-        <v>0</v>
+        <v>0.77595092431568236</v>
       </c>
       <c r="F46" s="0">
         <v>0</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="0">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="0">
-        <v>0</v>
+        <v>0.91703726775060113</v>
       </c>
       <c r="S46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.79023144502540421</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.91647924999173302</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.69940838303915542</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.99326925737043337</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.50173767657260848</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.636312301260473</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="BB47" s="0">
-        <v>0</v>
+        <v>0.54623027101902721</v>
       </c>
       <c r="BC47" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.59710729725133105</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.96307062895154527</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.64090370793562712</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.72200084993616054</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="0">
-        <v>0</v>
+        <v>0.50962223072270207</v>
       </c>
       <c r="C49" s="0">
         <v>0</v>
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="0">
-        <v>0</v>
+        <v>0.70576554110281675</v>
       </c>
       <c r="T49" s="0">
         <v>0</v>
@@ -10154,22 +10154,22 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.96576586239824347</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
       </c>
       <c r="AZ49" s="0">
-        <v>0</v>
+        <v>0.69271660010357172</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="BH49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI49" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.59690629369774562</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.87879337432650662</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.94053067889379827</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="0">
-        <v>0</v>
+        <v>0.65616490424289009</v>
       </c>
       <c r="S51" s="0">
         <v>0</v>
@@ -10575,16 +10575,16 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.87028997116492279</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.77107402186264029</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.73173508712314805</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="BJ51" s="0">
-        <v>0</v>
+        <v>0.8491148977069165</v>
       </c>
       <c r="BK51" s="0">
         <v>0</v>
@@ -10778,22 +10778,22 @@
         <v>0</v>
       </c>
       <c r="AW52" s="0">
-        <v>0</v>
+        <v>0.75354920782961132</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.79962148232136476</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.79127609549480404</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.8882501732559569</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="0">
-        <v>0</v>
+        <v>0.82345046520163234</v>
       </c>
       <c r="O53" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0</v>
+        <v>0.7378483169503649</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.61956700026767975</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.63840242986379481</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="0">
-        <v>0</v>
+        <v>0.56784249830581468</v>
       </c>
       <c r="AD54" s="0">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="AI54" s="0">
-        <v>0</v>
+        <v>0.75453591669058051</v>
       </c>
       <c r="AJ54" s="0">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>0</v>
+        <v>0.91663335544095559</v>
       </c>
       <c r="AV54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.53926884168122957</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.62893905074146539</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.64985948795024084</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="0">
         <v>0</v>
@@ -11408,22 +11408,22 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.71303807507401373</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.72021331589158033</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.57720223409323301</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.72797300709090229</v>
       </c>
       <c r="BF55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG55" s="0">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.86119446234941144</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.53201715579832976</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.58348215073425935</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.87958976100973629</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="BJ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK56" s="0">
         <v>0</v>
@@ -11653,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="BN56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO56" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.59102849997979878</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.54293532666737299</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.89250401560291981</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="BO57" s="0">
-        <v>0</v>
+        <v>0.74315842911938135</v>
       </c>
       <c r="BP57" s="0">
         <v>0</v>
@@ -11984,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="AM58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="0">
         <v>0</v>
@@ -12032,22 +12032,22 @@
         <v>0</v>
       </c>
       <c r="BC58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.67411720500798289</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.62108269205191668</v>
       </c>
       <c r="BH58" s="0">
-        <v>0</v>
+        <v>0.98122392554319071</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="BK58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL58" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.85645034800458564</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.6013250964169643</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.78424250675863261</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.94412030023282256</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="0">
-        <v>0</v>
+        <v>0.80762626388257674</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="AW60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0</v>
+        <v>0.85478559397228182</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.62268395691053502</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.65447015082025184</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.8318600833181895</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.96835771742006505</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.61751851370573729</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12799,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK62" s="0">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="AY62" s="0">
-        <v>0</v>
+        <v>0.62405315084282731</v>
       </c>
       <c r="AZ62" s="0">
         <v>0</v>
@@ -12859,7 +12859,7 @@
         <v>0</v>
       </c>
       <c r="BD62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.60810227673503148</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.8697185134542228</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.5373626672946612</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" s="0">
         <v>0</v>
@@ -12924,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="0">
         <v>0</v>
@@ -12960,7 +12960,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" s="0">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>0</v>
+        <v>0.7055978919149577</v>
       </c>
       <c r="AR63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.6723062605687391</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.82893828868633457</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13154,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>0</v>
+        <v>0.9784676440546084</v>
       </c>
       <c r="R64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.65841413690698136</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13298,10 +13298,10 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.91442378217228715</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.61504158447522395</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>0</v>
+        <v>0.86573759213312274</v>
       </c>
       <c r="R65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.9595568334129142</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.93028987234634242</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.58484976048380699</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>0</v>
+        <v>0.84271467483268081</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13647,7 +13647,7 @@
         <v>0</v>
       </c>
       <c r="AR66" s="0">
-        <v>0</v>
+        <v>0.78849589979289625</v>
       </c>
       <c r="AS66" s="0">
         <v>0</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="BD66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.51435552447520494</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.92840062839388149</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.63390628565004781</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.7436005708065434</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="T67" s="0">
-        <v>0</v>
+        <v>0.93069251392328223</v>
       </c>
       <c r="U67" s="0">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="BE67" s="0">
-        <v>0</v>
+        <v>0.64348878916961305</v>
       </c>
       <c r="BF67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.64990144009219319</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.62514581553151749</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="0">
         <v>0</v>
@@ -14047,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="AN68" s="0">
-        <v>0</v>
+        <v>0.56350168371476439</v>
       </c>
       <c r="AO68" s="0">
         <v>0</v>
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="0">
-        <v>0</v>
+        <v>0.97368038295869419</v>
       </c>
       <c r="AR68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.57165119229098216</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject30.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject30.xlsx
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.5501009033764761</v>
+        <v>0.87621524227613157</v>
       </c>
       <c r="C1" s="0">
         <v>0.69081635267734098</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.62646719785082838</v>
+        <v>0.7436005708065434</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0.72370018584838192</v>
       </c>
       <c r="D2" s="0">
-        <v>0.50267628438290768</v>
+        <v>0.91854721851115095</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="AW2" s="0">
-        <v>0.50700538320459154</v>
+        <v>0.50962223072270207</v>
       </c>
       <c r="AX2" s="0">
         <v>0</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.684364094695884</v>
+        <v>0.69081635267734098</v>
       </c>
       <c r="B3" s="0">
-        <v>0.6684421749891778</v>
+        <v>0.72370018584838192</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>0.55305889073703551</v>
+        <v>0.91797083768054888</v>
       </c>
       <c r="Q3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>0.57977221851993055</v>
+        <v>0.84271467483268081</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0.91854721851115095</v>
       </c>
       <c r="C4" s="0">
-        <v>0.69860353419368648</v>
+        <v>0.84217198647965674</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.7920125860817997</v>
+        <v>0.99188293513677406</v>
       </c>
       <c r="D5" s="0">
-        <v>0.50281742760906223</v>
+        <v>0.88260552884630761</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0.50157597672468235</v>
+        <v>0.99823415198058285</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.52426028363736754</v>
+        <v>0.82299740129551302</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0.89066897884417662</v>
       </c>
       <c r="H6" s="0">
-        <v>0.51943334068753944</v>
+        <v>0.67948575165955094</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0.99823415198058285</v>
       </c>
       <c r="F7" s="0">
-        <v>0.75519026861909655</v>
+        <v>0.89066897884417662</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="0">
-        <v>0.50449920127227643</v>
+        <v>0.88875698598024355</v>
       </c>
       <c r="X7" s="0">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>0.68025465651599171</v>
+        <v>0.90244496549211428</v>
       </c>
       <c r="AQ7" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0.76191949308465878</v>
       </c>
       <c r="J8" s="0">
-        <v>0.58609194750306393</v>
+        <v>0.60523639465998369</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.5813220914884043</v>
+        <v>0.76751339466123825</v>
       </c>
       <c r="H9" s="0">
-        <v>0.55676460779276027</v>
+        <v>0.76191949308465878</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>0.61401371814864669</v>
+        <v>0.83768495006770771</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -2215,16 +2215,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0.62427682297607023</v>
+        <v>0.95196568966429918</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.70565624809866589</v>
+        <v>0.71621165273142751</v>
       </c>
       <c r="M11" s="0">
-        <v>0.53260612532043594</v>
+        <v>0.76508565488746161</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>0.63088336710670534</v>
+        <v>0.65527927952799447</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.64039801290571452</v>
+        <v>0.65846519606561327</v>
       </c>
       <c r="K12" s="0">
         <v>0.71621165273142751</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.69445351857106008</v>
+        <v>0.98930680414585515</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.50209140303584676</v>
+        <v>0.57196236061590044</v>
       </c>
       <c r="O13" s="0">
         <v>0.75900808059269342</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="0">
-        <v>0.52016778884101611</v>
+        <v>0.78030777396791007</v>
       </c>
       <c r="AE13" s="0">
         <v>0</v>
@@ -3048,16 +3048,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.6583490683369756</v>
+        <v>0.75900808059269342</v>
       </c>
       <c r="N15" s="0">
-        <v>0.76790569873602577</v>
+        <v>0.91841520740187099</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.69855606579489826</v>
+        <v>0.74664986131569866</v>
       </c>
       <c r="Q15" s="0">
         <v>0.93250241593383987</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="0">
-        <v>0.81928857259467103</v>
+        <v>0.85156658165090304</v>
       </c>
       <c r="J16" s="0">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="0">
-        <v>0.56726781957084671</v>
+        <v>0.78942114948224196</v>
       </c>
       <c r="AQ16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.75169828918333159</v>
+        <v>0.93250241593383987</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.68675981465129921</v>
+        <v>0.91094512305024367</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>0.99529305351599118</v>
       </c>
       <c r="BM17" s="0">
-        <v>0.77607291415127855</v>
+        <v>0.86573759213312274</v>
       </c>
       <c r="BN17" s="0">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AT18" s="0">
-        <v>0.78763364573652594</v>
+        <v>0.91703726775060113</v>
       </c>
       <c r="AU18" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.60219677149154771</v>
+        <v>0.89976660192142277</v>
       </c>
       <c r="U19" s="0">
         <v>0.78462576227877201</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="AW19" s="0">
-        <v>0.55791821229858718</v>
+        <v>0.70576554110281675</v>
       </c>
       <c r="AX19" s="0">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="BO20" s="0">
-        <v>0.58914629822089615</v>
+        <v>0.93069251392328223</v>
       </c>
       <c r="BP20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.54876402875901786</v>
+        <v>0.78462576227877201</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.77848468691289208</v>
+        <v>0.8403627235731771</v>
       </c>
       <c r="W21" s="0">
         <v>0.77731400787962457</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.6072279040782973</v>
+        <v>0.86040872515730848</v>
       </c>
       <c r="U22" s="0">
         <v>0.8403627235731771</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>0.76167469782335662</v>
+        <v>0.9154750315600898</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="0">
-        <v>0.93603579112901714</v>
+        <v>0.99494818900374404</v>
       </c>
       <c r="AG22" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.52620119301436241</v>
+        <v>0.77731400787962457</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.8700833162753896</v>
+        <v>0.88675126490195932</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.67745824175176472</v>
+        <v>0.79189637583180128</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.72038656748824437</v>
+        <v>0.97700152208141244</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.89591255248399615</v>
+        <v>0.92673949229158625</v>
       </c>
       <c r="Y26" s="0">
         <v>0.79189637583180128</v>
@@ -5356,10 +5356,10 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.57044734688658894</v>
+        <v>0.94505646047355518</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.68536954427794761</v>
+        <v>0.8648102811807814</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.60007943831044086</v>
+        <v>0.77349969488731674</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.82024908864601809</v>
+        <v>0.95391436547275443</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0.87493081860372068</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.50880240780378727</v>
+        <v>0.67402887820914636</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0.95391436547275443</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.64883089425701646</v>
+        <v>0.87493081860372068</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.76871109149928118</v>
+        <v>0.92228449794005818</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="0">
-        <v>0.54291429112449929</v>
+        <v>0.56943724405029394</v>
       </c>
       <c r="X31" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.67115434331432411</v>
+        <v>0.93947804491013454</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.59423245167019856</v>
+        <v>0.69178177792789675</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.66487098704561765</v>
+        <v>0.78865999308167511</v>
       </c>
       <c r="AH32" s="0">
         <v>0.79078091550332519</v>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="0">
-        <v>0.6033130290519011</v>
+        <v>0.6753458585654637</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="0">
-        <v>0.69827283393874384</v>
+        <v>0.83281880618645232</v>
       </c>
       <c r="Y34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.61475317685098207</v>
+        <v>0.79078091550332519</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0.91563600586571836</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.54158967626702204</v>
+        <v>0.94597970713851653</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.6359440698686627</v>
+        <v>0.84580000915902398</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.54931112725028308</v>
+        <v>0.91563600586571836</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.94248618880348167</v>
+        <v>0.9692529809201782</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="BB35" s="0">
-        <v>0.62764904609105998</v>
+        <v>0.75453591669058051</v>
       </c>
       <c r="BC35" s="0">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="0">
-        <v>0.83237487559710033</v>
+        <v>0.92676477038058647</v>
       </c>
       <c r="AA36" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.58795346413696481</v>
+        <v>0.86849976901782378</v>
       </c>
       <c r="AM37" s="0">
         <v>0.91357773193732494</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="0">
-        <v>0.60403356096150795</v>
+        <v>0.72766061045847497</v>
       </c>
       <c r="AF38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.60760600905065254</v>
+        <v>0.79932680874835893</v>
       </c>
       <c r="AK38" s="0">
         <v>0.86849976901782378</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.91777001244965351</v>
+        <v>0.99527770560479223</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.5356343579483801</v>
+        <v>0.91357773193732494</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>0.6484931948963315</v>
+        <v>0.7378483169503649</v>
       </c>
       <c r="BB39" s="0">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="0">
-        <v>0.55148926874800441</v>
+        <v>0.89293915307066163</v>
       </c>
       <c r="AB40" s="0">
         <v>0</v>
@@ -8276,13 +8276,13 @@
         <v>0.99527770560479223</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.96365480755659239</v>
+        <v>0.98076145324385944</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.53959302193928549</v>
+        <v>0.76518962079030894</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.64829289588640115</v>
+        <v>0.80759772547781128</v>
       </c>
       <c r="AN41" s="0">
         <v>0.76518962079030894</v>
@@ -8491,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.99169527085747444</v>
+        <v>0.99989019617003683</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.50786810606625443</v>
+        <v>0.72606658442228633</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.55570392837278293</v>
+        <v>0.90418818135281454</v>
       </c>
       <c r="AR42" s="0">
         <v>0.76937168708756043</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>0.68776713568957704</v>
+        <v>0.80762626388257674</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="BP43" s="0">
-        <v>0.72833423970231914</v>
+        <v>0.97368038295869419</v>
       </c>
     </row>
     <row r="44">
@@ -9109,10 +9109,10 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.68256665641674186</v>
+        <v>0.76937168708756043</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.94562542083940504</v>
+        <v>0.99050802042801867</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.90549606450558495</v>
+        <v>0.97569954179011575</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.59089623829177518</v>
+        <v>0.60724512748396442</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.66400616190011719</v>
+        <v>0.79023144502540421</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.88603442000379595</v>
+        <v>0.99326925737043337</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="0">
-        <v>0.77595092431568236</v>
+        <v>0.97624751982568048</v>
       </c>
       <c r="F46" s="0">
         <v>0</v>
@@ -9739,13 +9739,13 @@
         <v>0.99326925737043337</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.50173767657260848</v>
+        <v>0.91647924999173302</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.636312301260473</v>
+        <v>0.96307062895154527</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="BB47" s="0">
-        <v>0.54623027101902721</v>
+        <v>0.91663335544095559</v>
       </c>
       <c r="BC47" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.59710729725133105</v>
+        <v>0.69940838303915542</v>
       </c>
       <c r="AU48" s="0">
         <v>0.96307062895154527</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.64090370793562712</v>
+        <v>0.96576586239824347</v>
       </c>
       <c r="AX48" s="0">
         <v>0.72200084993616054</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="AZ49" s="0">
-        <v>0.69271660010357172</v>
+        <v>0.75354920782961132</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.59690629369774562</v>
+        <v>0.72200084993616054</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="0">
-        <v>0.65616490424289009</v>
+        <v>0.7818640068799223</v>
       </c>
       <c r="S51" s="0">
         <v>0</v>
@@ -10575,13 +10575,13 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.87028997116492279</v>
+        <v>0.87879337432650662</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.77107402186264029</v>
+        <v>0.79127609549480404</v>
       </c>
       <c r="BA51" s="0">
         <v>0.73173508712314805</v>
@@ -10781,7 +10781,7 @@
         <v>0.75354920782961132</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.79962148232136476</v>
+        <v>0.94053067889379827</v>
       </c>
       <c r="AY52" s="0">
         <v>0.79127609549480404</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="0">
-        <v>0.82345046520163234</v>
+        <v>0.8564133346268602</v>
       </c>
       <c r="O53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.61956700026767975</v>
+        <v>0.73173508712314805</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>0.63840242986379481</v>
+        <v>0.71303807507401373</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="0">
-        <v>0.56784249830581468</v>
+        <v>0.91467713430775432</v>
       </c>
       <c r="AD54" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.53926884168122957</v>
+        <v>0.8882501732559569</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11208,10 +11208,10 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.62893905074146539</v>
+        <v>0.72021331589158033</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.64985948795024084</v>
+        <v>0.86119446234941144</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0.86119446234941144</v>
       </c>
       <c r="BC56" s="0">
-        <v>0.53201715579832976</v>
+        <v>0.57720223409323301</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11826,10 +11826,10 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.59102849997979878</v>
+        <v>0.72797300709090229</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.54293532666737299</v>
+        <v>0.58348215073425935</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.67411720500798289</v>
+        <v>0.87958976100973629</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12244,10 +12244,10 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.85645034800458564</v>
+        <v>0.89250401560291981</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.6013250964169643</v>
+        <v>0.62108269205191668</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12453,10 +12453,10 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.85478559397228182</v>
+        <v>0.98122392554319071</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.62268395691053502</v>
+        <v>0.78424250675863261</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.8318600833181895</v>
+        <v>0.94412030023282256</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0.96835771742006505</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.61751851370573729</v>
+        <v>0.6723062605687391</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="AY62" s="0">
-        <v>0.62405315084282731</v>
+        <v>0.8491148977069165</v>
       </c>
       <c r="AZ62" s="0">
         <v>0</v>
@@ -12871,10 +12871,10 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.60810227673503148</v>
+        <v>0.65447015082025184</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.8697185134542228</v>
+        <v>0.96835771742006505</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.5373626672946612</v>
+        <v>0.65841413690698136</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>0.7055978919149577</v>
+        <v>0.76862998326669141</v>
       </c>
       <c r="AR63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.82893828868633457</v>
+        <v>0.9595568334129142</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13154,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>0.9784676440546084</v>
+        <v>0.99529305351599118</v>
       </c>
       <c r="R64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.91442378217228715</v>
+        <v>0.93028987234634242</v>
       </c>
       <c r="BN64" s="0">
         <v>0.61504158447522395</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.58484976048380699</v>
+        <v>0.92840062839388149</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13647,7 +13647,7 @@
         <v>0</v>
       </c>
       <c r="AR66" s="0">
-        <v>0.78849589979289625</v>
+        <v>0.80163830353965704</v>
       </c>
       <c r="AS66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.51435552447520494</v>
+        <v>0.61504158447522395</v>
       </c>
       <c r="BM66" s="0">
         <v>0.92840062839388149</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.63390628565004781</v>
+        <v>0.64990144009219319</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="BE67" s="0">
-        <v>0.64348878916961305</v>
+        <v>0.74315842911938135</v>
       </c>
       <c r="BF67" s="0">
         <v>0</v>
@@ -14047,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="AN68" s="0">
-        <v>0.56350168371476439</v>
+        <v>0.994827999712671</v>
       </c>
       <c r="AO68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.57165119229098216</v>
+        <v>0.62514581553151749</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
